--- a/classfiers/mega/welm/nearmiss/WELM_rbf_nearmiss_results.xlsx
+++ b/classfiers/mega/welm/nearmiss/WELM_rbf_nearmiss_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4895833333333333</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5000219298245614</v>
+        <v>0.4999732691793638</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
